--- a/OR_Scheduling/OR_Scheduling_data.xlsx
+++ b/OR_Scheduling/OR_Scheduling_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\Academic\INSEAD\Teaching\2021\ARM_FBL_March\Cases\OR Scheduling\Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Dropbox\Academic\INSEAD\Teaching\2021\ARM_FBL_March\airm\OR_Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A1CFA3-DEF8-47C7-BAEA-7F925D86E83E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796048F6-688C-4040-B5CC-E6A9A85B2359}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39700" yWindow="1570" windowWidth="34850" windowHeight="19360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40100" yWindow="1150" windowWidth="34850" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requests" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Mon</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Oral_Surgery</t>
+  </si>
+  <si>
+    <t>Hours</t>
   </si>
 </sst>
 </file>
@@ -598,52 +601,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158C137F-9D1D-4BA4-8DD6-645C73F5307B}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="15.9140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="2" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="15.9140625" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="11">
         <v>20</v>
       </c>
-      <c r="B2" s="12">
+      <c r="C2" s="12">
         <v>39</v>
       </c>
-      <c r="C2" s="12">
+      <c r="D2" s="12">
         <v>14</v>
       </c>
-      <c r="D2" s="12">
+      <c r="E2" s="12">
         <v>17</v>
       </c>
-      <c r="E2" s="13">
+      <c r="F2" s="13">
         <v>63</v>
       </c>
     </row>
@@ -656,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
